--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H2">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N2">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q2">
-        <v>936.9878912201751</v>
+        <v>5.49353418305</v>
       </c>
       <c r="R2">
-        <v>936.9878912201751</v>
+        <v>49.44180764745</v>
       </c>
       <c r="S2">
-        <v>0.2566404719979427</v>
+        <v>0.001148525536056622</v>
       </c>
       <c r="T2">
-        <v>0.2566404719979427</v>
+        <v>0.001148525536056622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H3">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N3">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q3">
-        <v>371.6488271627272</v>
+        <v>709.422637351728</v>
       </c>
       <c r="R3">
-        <v>371.6488271627272</v>
+        <v>6384.803736165552</v>
       </c>
       <c r="S3">
-        <v>0.1017944109142298</v>
+        <v>0.1483180021649972</v>
       </c>
       <c r="T3">
-        <v>0.1017944109142298</v>
+        <v>0.1483180021649972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>18.9651248781211</v>
+        <v>8.265822</v>
       </c>
       <c r="H4">
-        <v>18.9651248781211</v>
+        <v>24.797466</v>
       </c>
       <c r="I4">
-        <v>0.6210246529011266</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J4">
-        <v>0.6210246529011266</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q4">
-        <v>1623.426200011201</v>
+        <v>0.077001642478</v>
       </c>
       <c r="R4">
-        <v>1623.426200011201</v>
+        <v>0.693014782302</v>
       </c>
       <c r="S4">
-        <v>0.4446555501183088</v>
+        <v>1.609862608612813E-05</v>
       </c>
       <c r="T4">
-        <v>0.4446555501183088</v>
+        <v>1.609862608612813E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>18.9651248781211</v>
+        <v>8.265822</v>
       </c>
       <c r="H5">
-        <v>18.9651248781211</v>
+        <v>24.797466</v>
       </c>
       <c r="I5">
-        <v>0.6210246529011266</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J5">
-        <v>0.6210246529011266</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N5">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q5">
-        <v>643.9191465256951</v>
+        <v>281.014214069764</v>
       </c>
       <c r="R5">
-        <v>643.9191465256951</v>
+        <v>2529.127926627876</v>
       </c>
       <c r="S5">
-        <v>0.1763691027828178</v>
+        <v>0.0587512501241623</v>
       </c>
       <c r="T5">
-        <v>0.1763691027828178</v>
+        <v>0.0587512501241623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.627273758836396</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H6">
-        <v>0.627273758836396</v>
+        <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.02054046418670096</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J6">
-        <v>0.02054046418670096</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N6">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q6">
-        <v>53.69501446569966</v>
+        <v>7.500738634944445</v>
       </c>
       <c r="R6">
-        <v>53.69501446569966</v>
+        <v>67.50664771450001</v>
       </c>
       <c r="S6">
-        <v>0.01470703515545795</v>
+        <v>0.001568168973645536</v>
       </c>
       <c r="T6">
-        <v>0.01470703515545795</v>
+        <v>0.001568168973645536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.28595333333333</v>
+      </c>
+      <c r="H7">
+        <v>33.85786</v>
+      </c>
+      <c r="I7">
+        <v>0.2843174958338682</v>
+      </c>
+      <c r="J7">
+        <v>0.2843174958338682</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>85.826024</v>
+      </c>
+      <c r="N7">
+        <v>257.478072</v>
+      </c>
+      <c r="O7">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P7">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q7">
+        <v>968.6285016495467</v>
+      </c>
+      <c r="R7">
+        <v>8717.656514845921</v>
+      </c>
+      <c r="S7">
+        <v>0.2025098109936787</v>
+      </c>
+      <c r="T7">
+        <v>0.2025098109936787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.28595333333333</v>
+      </c>
+      <c r="H8">
+        <v>33.85786</v>
+      </c>
+      <c r="I8">
+        <v>0.2843174958338682</v>
+      </c>
+      <c r="J8">
+        <v>0.2843174958338682</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.027947</v>
+      </c>
+      <c r="O8">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P8">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.1051361792688889</v>
+      </c>
+      <c r="R8">
+        <v>0.94622561342</v>
+      </c>
+      <c r="S8">
+        <v>2.198067448571052E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.198067448571053E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.28595333333333</v>
+      </c>
+      <c r="H9">
+        <v>33.85786</v>
+      </c>
+      <c r="I9">
+        <v>0.2843174958338682</v>
+      </c>
+      <c r="J9">
+        <v>0.2843174958338682</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N9">
+        <v>101.991386</v>
+      </c>
+      <c r="O9">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P9">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q9">
+        <v>383.6900075993289</v>
+      </c>
+      <c r="R9">
+        <v>3453.21006839396</v>
+      </c>
+      <c r="S9">
+        <v>0.08021753519205832</v>
+      </c>
+      <c r="T9">
+        <v>0.08021753519205832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H10">
+        <v>58.546559</v>
+      </c>
+      <c r="I10">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J10">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.993825</v>
+      </c>
+      <c r="O10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q10">
+        <v>12.97017699979722</v>
+      </c>
+      <c r="R10">
+        <v>116.731592998175</v>
+      </c>
+      <c r="S10">
+        <v>0.002711656830570739</v>
+      </c>
+      <c r="T10">
+        <v>0.002711656830570739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="H7">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="I7">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="J7">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>33.9528028770612</v>
-      </c>
-      <c r="N7">
-        <v>33.9528028770612</v>
-      </c>
-      <c r="O7">
-        <v>0.2839969427282906</v>
-      </c>
-      <c r="P7">
-        <v>0.2839969427282906</v>
-      </c>
-      <c r="Q7">
-        <v>21.29770228372538</v>
-      </c>
-      <c r="R7">
-        <v>21.29770228372538</v>
-      </c>
-      <c r="S7">
-        <v>0.005833429031243016</v>
-      </c>
-      <c r="T7">
-        <v>0.005833429031243016</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H11">
+        <v>58.546559</v>
+      </c>
+      <c r="I11">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J11">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>85.826024</v>
+      </c>
+      <c r="N11">
+        <v>257.478072</v>
+      </c>
+      <c r="O11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q11">
+        <v>1674.939459283805</v>
+      </c>
+      <c r="R11">
+        <v>15074.45513355425</v>
+      </c>
+      <c r="S11">
+        <v>0.3501772586164706</v>
+      </c>
+      <c r="T11">
+        <v>0.3501772586164706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H12">
+        <v>58.546559</v>
+      </c>
+      <c r="I12">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J12">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.027947</v>
+      </c>
+      <c r="O12">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P12">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.1818000760414444</v>
+      </c>
+      <c r="R12">
+        <v>1.636200684373</v>
+      </c>
+      <c r="S12">
+        <v>3.800868854787177E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.800868854787177E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H13">
+        <v>58.546559</v>
+      </c>
+      <c r="I13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N13">
+        <v>101.991386</v>
+      </c>
+      <c r="O13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q13">
+        <v>663.4716331045305</v>
+      </c>
+      <c r="R13">
+        <v>5971.244697940774</v>
+      </c>
+      <c r="S13">
+        <v>0.1387110897427191</v>
+      </c>
+      <c r="T13">
+        <v>0.1387110897427191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.882802</v>
+      </c>
+      <c r="I14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.993825</v>
+      </c>
+      <c r="O14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q14">
+        <v>0.4171086330722222</v>
+      </c>
+      <c r="R14">
+        <v>3.753977697649999</v>
+      </c>
+      <c r="S14">
+        <v>8.720432064866951E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.720432064866951E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.882802</v>
+      </c>
+      <c r="I15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.826024</v>
+      </c>
+      <c r="N15">
+        <v>257.478072</v>
+      </c>
+      <c r="O15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q15">
+        <v>53.86446987974933</v>
+      </c>
+      <c r="R15">
+        <v>484.780228917744</v>
+      </c>
+      <c r="S15">
+        <v>0.0112613696541518</v>
+      </c>
+      <c r="T15">
+        <v>0.0112613696541518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.882802</v>
+      </c>
+      <c r="I16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.027947</v>
+      </c>
+      <c r="O16">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P16">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.005846518610444443</v>
+      </c>
+      <c r="R16">
+        <v>0.05261866749399999</v>
+      </c>
+      <c r="S16">
+        <v>1.222323498385448E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.222323498385449E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.882802</v>
+      </c>
+      <c r="I17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N17">
+        <v>101.991386</v>
+      </c>
+      <c r="O17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q17">
+        <v>21.33662061595244</v>
+      </c>
+      <c r="R17">
+        <v>192.029585543572</v>
+      </c>
+      <c r="S17">
+        <v>0.004460817538222374</v>
+      </c>
+      <c r="T17">
+        <v>0.004460817538222374</v>
       </c>
     </row>
   </sheetData>
